--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail5 Features.xlsx
@@ -4858,7 +4858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4869,29 +4869,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4912,115 +4910,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5037,72 +5025,66 @@
         <v>1.450573387141198e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.608714848347602</v>
+        <v>1.031478306030889e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.14533278547302</v>
+        <v>8.005095550022282e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.031478306030889e-07</v>
+        <v>0.0993978341176083</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.005095550022282e-07</v>
+        <v>0.3718293974058515</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0993978341176083</v>
+        <v>0.147809645416879</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3718293974058515</v>
+        <v>1.926401517666688</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.147809645416879</v>
+        <v>3.517330342942278</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.959202804247308</v>
+        <v>8.617773268177254</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.517330342942278</v>
+        <v>4.188487967887586e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.617773268177254</v>
+        <v>117472061422.3248</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.188487967887586e-19</v>
+        <v>1.018802119175091e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>117472061422.3248</v>
+        <v>5779.981548286976</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.018802119175091e-09</v>
+        <v>2.844098517202408e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5779.981548286976</v>
+        <v>8.471481773514267</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.844098517202408e-05</v>
+        <v>1.332612350902091</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.471481773514267</v>
+        <v>0.002041095839663585</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.332612350902091</v>
+        <v>7.209007511480864</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.002041095839663585</v>
+        <v>0.9562627255135571</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.209007511480864</v>
+        <v>0.7534373417781988</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9562627255135571</v>
+        <v>456</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7534373417781988</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>456</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>12.13113562999302</v>
       </c>
     </row>
@@ -5117,72 +5099,66 @@
         <v>1.042853274105173e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.024428261727607</v>
+        <v>7.45077150670521e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.27491888666047</v>
+        <v>8.01697723909634e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.45077150670521e-08</v>
+        <v>0.09212452798291974</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.01697723909634e-07</v>
+        <v>0.3889878574485416</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09212452798291974</v>
+        <v>0.1594333917914539</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3889878574485416</v>
+        <v>1.926149227666134</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1594333917914539</v>
+        <v>3.293306551642257</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.958629284970437</v>
+        <v>8.515357035405078</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.293306551642257</v>
+        <v>4.289845741648346e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.515357035405078</v>
+        <v>113984755516.7984</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.289845741648346e-19</v>
+        <v>1.050117335418017e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>113984755516.7984</v>
+        <v>5573.592585765056</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.050117335418017e-09</v>
+        <v>2.422872890222203e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5573.592585765056</v>
+        <v>6.351052662117253</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.422872890222203e-05</v>
+        <v>1.620100750274358</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.351052662117253</v>
+        <v>0.0009772868572539622</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.620100750274358</v>
+        <v>7.429216746276017</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0009772868572539622</v>
+        <v>0.9580134992286076</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.429216746276017</v>
+        <v>0.7375814857507598</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9580134992286076</v>
+        <v>438</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7375814857507598</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>438</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>12.16527540003428</v>
       </c>
     </row>
@@ -5197,72 +5173,66 @@
         <v>7.783052471836847e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.931382778178219</v>
+        <v>5.290426479229118e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.459089644128209</v>
+        <v>8.024676846302834e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.290426479229118e-08</v>
+        <v>0.07692242901431148</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.024676846302834e-07</v>
+        <v>0.3892029276958172</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07692242901431148</v>
+        <v>0.1570181448039437</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3892029276958172</v>
+        <v>1.925112803929857</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1570181448039437</v>
+        <v>3.598861869232254</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.955939808465595</v>
+        <v>8.039256544444457</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.598861869232254</v>
+        <v>4.812997364835276e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.039256544444457</v>
+        <v>104020539567.0351</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.812997364835276e-19</v>
+        <v>1.149629010615125e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>104020539567.0351</v>
+        <v>5207.794375999502</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.149629010615125e-09</v>
+        <v>1.844669567117043e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5207.794375999502</v>
+        <v>6.486985192812811</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1.844669567117043e-05</v>
+        <v>1.665075614834359</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.486985192812811</v>
+        <v>0.0007762549742680855</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.665075614834359</v>
+        <v>7.745274089533015</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0007762549742680855</v>
+        <v>0.9587289571102754</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.745274089533015</v>
+        <v>0.7743120567366806</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9587289571102754</v>
+        <v>440</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7743120567366806</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>440</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>13.22276627145726</v>
       </c>
     </row>
@@ -5277,72 +5247,66 @@
         <v>6.338861819381234e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.7612753751572614</v>
+        <v>3.646816405571245e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.7061776933765347</v>
+        <v>8.029220355041246e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.646816405571245e-08</v>
+        <v>0.0512486833164464</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.029220355041246e-07</v>
+        <v>0.3487874552487815</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0512486833164464</v>
+        <v>0.1239513977615668</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3487874552487815</v>
+        <v>1.925279380707456</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1239513977615668</v>
+        <v>3.483513206590404</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.956060507781104</v>
+        <v>7.880721978224837</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.483513206590404</v>
+        <v>4.930092274593331e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.880721978224837</v>
+        <v>101741841861.596</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.930092274593331e-19</v>
+        <v>1.174189786630833e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>101741841861.596</v>
+        <v>5103.336893141824</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.174189786630833e-09</v>
+        <v>1.641852391648744e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5103.336893141824</v>
+        <v>9.827647020330444</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1.641852391648744e-05</v>
+        <v>1.353341445406777</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.827647020330444</v>
+        <v>0.001585744482549671</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.353341445406777</v>
+        <v>7.866966261851313</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.001585744482549671</v>
+        <v>0.9573452443371304</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.866966261851313</v>
+        <v>0.7716830421846911</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9573452443371304</v>
+        <v>455</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7716830421846911</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>455</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>14.4400276429292</v>
       </c>
     </row>
@@ -5357,72 +5321,66 @@
         <v>5.77854708848498e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.2357991538814568</v>
+        <v>2.416590471281634e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.288553435381354</v>
+        <v>8.031385983311657e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.416590471281634e-08</v>
+        <v>0.02081670153978242</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.031385983311657e-07</v>
+        <v>0.2698036991834041</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02081670153978242</v>
+        <v>0.0730156297300532</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2698036991834041</v>
+        <v>1.929331375255864</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0730156297300532</v>
+        <v>3.723756402321721</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.955287341068647</v>
+        <v>7.738811545909418</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.723756402321721</v>
+        <v>5.242673841558442e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>7.738811545909418</v>
+        <v>98926063329.97499</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.242673841558442e-19</v>
+        <v>1.21302396284682e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>98926063329.97499</v>
+        <v>5130.672506339588</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.21302396284682e-09</v>
+        <v>1.882130089776359e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5130.672506339588</v>
+        <v>11.97695024862853</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1.882130089776359e-05</v>
+        <v>1.24851138165811</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.97695024862853</v>
+        <v>0.002699865497518106</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.24851138165811</v>
+        <v>7.772280378419121</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.002699865497518106</v>
+        <v>0.9567022215130315</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>7.772280378419121</v>
+        <v>0.8005682522202366</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9567022215130315</v>
+        <v>461</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8005682522202366</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>461</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>14.96898751219912</v>
       </c>
     </row>
@@ -5437,72 +5395,66 @@
         <v>5.6945015838759e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1794686896290707</v>
+        <v>1.705490069019749e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.42512388734971</v>
+        <v>8.031808942159183e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.705490069019749e-08</v>
+        <v>-0.004493024381454708</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.031808942159183e-07</v>
+        <v>0.1886431936148339</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.004493024381454708</v>
+        <v>0.03550325712625992</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1886431936148339</v>
+        <v>1.926760342546511</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03550325712625992</v>
+        <v>4.171085289275432</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.95200815945092</v>
+        <v>7.555420938189314</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.171085289275432</v>
+        <v>5.5002705365027e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>7.555420938189314</v>
+        <v>98841212352.99318</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.5002705365027e-19</v>
+        <v>1.21742938962949e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>98841212352.99318</v>
+        <v>5373.53619561811</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.21742938962949e-09</v>
+        <v>2.426468265266554e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5373.53619561811</v>
+        <v>9.537570564115983</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.426468265266554e-05</v>
+        <v>1.467106200026952</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.537570564115983</v>
+        <v>0.00220724297864182</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.467106200026952</v>
+        <v>7.454324011259914</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.00220724297864182</v>
+        <v>0.9556254914562897</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.454324011259914</v>
+        <v>0.7991490281615905</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9556254914562897</v>
+        <v>469</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.7991490281615905</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>469</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>13.32940680287509</v>
       </c>
     </row>
@@ -5879,7 +5831,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.331023754636487</v>
+        <v>1.322741444325685</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.84763253506579</v>
@@ -5968,7 +5920,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.331324495803103</v>
+        <v>1.313345317901844</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.790495463009308</v>
@@ -6057,7 +6009,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.325185480331866</v>
+        <v>1.305842093384395</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.83209823155379</v>
@@ -6146,7 +6098,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.336627938202395</v>
+        <v>1.317956506044036</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.848255778720812</v>
@@ -6235,7 +6187,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.341396455367295</v>
+        <v>1.324489368219114</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.871693262236892</v>
@@ -6324,7 +6276,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.426107249916363</v>
+        <v>1.399702797258811</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.170512896101087</v>
@@ -6413,7 +6365,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.421791220845184</v>
+        <v>1.3983670512036</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.115952894386775</v>
@@ -6502,7 +6454,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.431372656138127</v>
+        <v>1.408700688946336</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.119092937049638</v>
@@ -6591,7 +6543,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.456085851970593</v>
+        <v>1.42777760381481</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.347158770100055</v>
@@ -6680,7 +6632,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.462591407484275</v>
+        <v>1.435396121894822</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.416224667243043</v>
@@ -6769,7 +6721,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.461240067670555</v>
+        <v>1.430833929600784</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.449142665550825</v>
@@ -6858,7 +6810,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.458954083493803</v>
+        <v>1.422326394649215</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.429363108325558</v>
@@ -6947,7 +6899,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.455211548351135</v>
+        <v>1.418371673881178</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.31310665228232</v>
@@ -7036,7 +6988,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.447957596948217</v>
+        <v>1.417503194238631</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.055621398908405</v>
@@ -7125,7 +7077,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.453158058921358</v>
+        <v>1.421036449674036</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.447914014024446</v>
@@ -7214,7 +7166,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.448037118099731</v>
+        <v>1.420637337502742</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.418567415588279</v>
@@ -7303,7 +7255,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.453880145142556</v>
+        <v>1.433161015709144</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.491268755478293</v>
@@ -7392,7 +7344,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.466624128975342</v>
+        <v>1.443116249904449</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.538110669354082</v>
@@ -7481,7 +7433,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.454246964048227</v>
+        <v>1.434686762863497</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.348150292107253</v>
@@ -7570,7 +7522,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.465569029774071</v>
+        <v>1.437827528280429</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.330677028521994</v>
@@ -7659,7 +7611,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.43447305801532</v>
+        <v>1.407938469842888</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.216726452725903</v>
@@ -7748,7 +7700,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.442382531656452</v>
+        <v>1.413324257219113</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.212126471766451</v>
@@ -7837,7 +7789,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.44023992294869</v>
+        <v>1.410054740612594</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.212688268349761</v>
@@ -7926,7 +7878,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.465391321237535</v>
+        <v>1.431388047457683</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.222546897163252</v>
@@ -8015,7 +7967,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.452046886427579</v>
+        <v>1.418779511317172</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.181634623298709</v>
@@ -8104,7 +8056,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.425907064355597</v>
+        <v>1.400645001469613</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.278107778862405</v>
@@ -8193,7 +8145,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.454260670543222</v>
+        <v>1.426854064607271</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.403420272296591</v>
@@ -8282,7 +8234,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.489871296716736</v>
+        <v>1.456327713452735</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.179474791716452</v>
@@ -8371,7 +8323,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.507001622602248</v>
+        <v>1.478316505617898</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.220655833910501</v>
@@ -8460,7 +8412,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.478525443928356</v>
+        <v>1.458086292631337</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.300422837175513</v>
@@ -8549,7 +8501,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.467960788629303</v>
+        <v>1.446566073548898</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.372590690588775</v>
@@ -8638,7 +8590,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.447549150117804</v>
+        <v>1.426533122918183</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.26333279686889</v>
@@ -8727,7 +8679,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.453925050197509</v>
+        <v>1.431932346776202</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.359045579924135</v>
@@ -8816,7 +8768,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.429323865651994</v>
+        <v>1.416184810699348</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.288382464892386</v>
@@ -8905,7 +8857,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.443725819125145</v>
+        <v>1.431228493760053</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.093878843872825</v>
@@ -8994,7 +8946,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.475178334325451</v>
+        <v>1.46999121526626</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.32111217992616</v>
@@ -9083,7 +9035,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.472192967767794</v>
+        <v>1.467737464336363</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.375612922895074</v>
@@ -9172,7 +9124,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.486151817799004</v>
+        <v>1.483127989144925</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.41583858103263</v>
@@ -9261,7 +9213,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.483683949839532</v>
+        <v>1.485679094031733</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.405975555388675</v>
@@ -9350,7 +9302,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.483111671623611</v>
+        <v>1.479799016455163</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.293298698742864</v>
@@ -9439,7 +9391,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.473336301142448</v>
+        <v>1.468115892693448</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.22241054165134</v>
@@ -9528,7 +9480,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.471975987419461</v>
+        <v>1.467670541613338</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.222671140292795</v>
@@ -9617,7 +9569,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.469631627898449</v>
+        <v>1.465245546528966</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.242452262610199</v>
@@ -9706,7 +9658,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.471313602123967</v>
+        <v>1.46952978434997</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.171562947168726</v>
@@ -9795,7 +9747,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.502484264714221</v>
+        <v>1.495464581995791</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.986514218306055</v>
@@ -9884,7 +9836,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.477645551225197</v>
+        <v>1.474404604958692</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.290802132638372</v>
@@ -9973,7 +9925,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.481704576672717</v>
+        <v>1.48054998548402</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.158321343971763</v>
@@ -10062,7 +10014,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.465506580400525</v>
+        <v>1.464326536227861</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.197921616455474</v>
@@ -10151,7 +10103,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.442058055921024</v>
+        <v>1.439909926893971</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.274280381991</v>
@@ -10240,7 +10192,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.433412290017485</v>
+        <v>1.435315642210367</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.202140409896467</v>
@@ -10329,7 +10281,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.431641876786427</v>
+        <v>1.432826328268588</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.235199938444156</v>
@@ -10615,7 +10567,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.339111680223296</v>
+        <v>1.321249205807737</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.018207425451468</v>
@@ -10704,7 +10656,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.337134611220979</v>
+        <v>1.3116534150085</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.074833883099723</v>
@@ -10793,7 +10745,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.33239192450406</v>
+        <v>1.311398074822081</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.027806871100061</v>
@@ -10882,7 +10834,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.337855474313379</v>
+        <v>1.316716725539411</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.023369566110753</v>
@@ -10971,7 +10923,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.3263981514147</v>
+        <v>1.308574232488177</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.002647734817873</v>
@@ -11060,7 +11012,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.341307585252404</v>
+        <v>1.320985609003856</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.100149471961277</v>
@@ -11149,7 +11101,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.349001006015863</v>
+        <v>1.330413709637031</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.001195757328752</v>
@@ -11238,7 +11190,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.379269004048492</v>
+        <v>1.356158775390074</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.94628626198717</v>
@@ -11327,7 +11279,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.389345961426567</v>
+        <v>1.367647966010223</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.989876802743506</v>
@@ -11416,7 +11368,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.390257467119451</v>
+        <v>1.367088243714113</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.003693621512891</v>
@@ -11505,7 +11457,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.380078141704174</v>
+        <v>1.357075947471669</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.043780189957209</v>
@@ -11594,7 +11546,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.380034975642385</v>
+        <v>1.355467429960788</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.04991140184772</v>
@@ -11683,7 +11635,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.381172555159397</v>
+        <v>1.358856261924356</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.006588649951931</v>
@@ -11772,7 +11724,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.405501677246411</v>
+        <v>1.384367350139612</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.966527507915129</v>
@@ -11861,7 +11813,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.447779139227218</v>
+        <v>1.420969944876463</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.162978488451764</v>
@@ -11950,7 +11902,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.441559125318151</v>
+        <v>1.416326937906572</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.087164334315338</v>
@@ -12039,7 +11991,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.451544896854448</v>
+        <v>1.438410607195785</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.081057569798834</v>
@@ -12128,7 +12080,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.452537258140691</v>
+        <v>1.438340973422626</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.049629706084823</v>
@@ -12217,7 +12169,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.458588931441039</v>
+        <v>1.437637918845538</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.997871697709693</v>
@@ -12306,7 +12258,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.489902292612621</v>
+        <v>1.457908395867216</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.270402858944855</v>
@@ -12395,7 +12347,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.471297255572183</v>
+        <v>1.442516802662893</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.308050938437964</v>
@@ -12484,7 +12436,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.475418322653032</v>
+        <v>1.443608259705815</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.371653523202506</v>
@@ -12573,7 +12525,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.467682864012236</v>
+        <v>1.43721721918129</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.220361931666103</v>
@@ -12662,7 +12614,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.469678356643062</v>
+        <v>1.43379401615442</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.220480913400735</v>
@@ -12751,7 +12703,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.467041368241769</v>
+        <v>1.434579191732803</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.19188316211026</v>
@@ -12840,7 +12792,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.489013060229693</v>
+        <v>1.453350904517442</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.51006432855607</v>
@@ -12929,7 +12881,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.496210949335548</v>
+        <v>1.456614216326682</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.676271245844962</v>
@@ -13018,7 +12970,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.501360601669747</v>
+        <v>1.461238488871095</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.491151750787519</v>
@@ -13107,7 +13059,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.492434286302546</v>
+        <v>1.45359296157733</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.623715504545006</v>
@@ -13196,7 +13148,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.489421736547577</v>
+        <v>1.450795401195986</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.628360006053527</v>
@@ -13285,7 +13237,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.489381805511951</v>
+        <v>1.450802869127646</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.923090312794355</v>
@@ -13374,7 +13326,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.480124074416802</v>
+        <v>1.44225108369582</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.648032421636894</v>
@@ -13463,7 +13415,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.465436124326148</v>
+        <v>1.433107279675302</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.542897089878123</v>
@@ -13552,7 +13504,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.456759395193286</v>
+        <v>1.433677457279114</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.68175117165736</v>
@@ -13641,7 +13593,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.477691287891319</v>
+        <v>1.460164884020115</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.330291965607111</v>
@@ -13730,7 +13682,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.502536789404763</v>
+        <v>1.482434628281314</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.781893472552733</v>
@@ -13819,7 +13771,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.494320304482989</v>
+        <v>1.471152338667743</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.565157340629726</v>
@@ -13908,7 +13860,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.507991806185247</v>
+        <v>1.486777799587961</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.65084573918478</v>
@@ -13997,7 +13949,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.503841956797648</v>
+        <v>1.486396067206734</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.705194579772375</v>
@@ -14086,7 +14038,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.504509794843388</v>
+        <v>1.485546308704342</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.568233119331542</v>
@@ -14175,7 +14127,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.502069452696197</v>
+        <v>1.483203953567249</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.668664648420918</v>
@@ -14264,7 +14216,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.485475937055437</v>
+        <v>1.465147606940908</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.67715510018924</v>
@@ -14353,7 +14305,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.483213110468771</v>
+        <v>1.466389268316997</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.793420954230124</v>
@@ -14442,7 +14394,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.483301844901158</v>
+        <v>1.466770678071511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.619344993470086</v>
@@ -14531,7 +14483,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.468227786320804</v>
+        <v>1.45805070035782</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.582096862145945</v>
@@ -14620,7 +14572,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.472541072734806</v>
+        <v>1.463842572850109</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.666403611649939</v>
@@ -14709,7 +14661,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.475530304345346</v>
+        <v>1.464168797273313</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.568874843568529</v>
@@ -14798,7 +14750,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.492626798774399</v>
+        <v>1.47691251627011</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.414674276267675</v>
@@ -14887,7 +14839,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.489869676345193</v>
+        <v>1.470358238066038</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.741190393317961</v>
@@ -14976,7 +14928,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.483812495443165</v>
+        <v>1.464550788683594</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.566336149058378</v>
@@ -15065,7 +15017,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.483775239322541</v>
+        <v>1.464661100577565</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.513751659611949</v>
@@ -15351,7 +15303,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.526273554439326</v>
+        <v>1.484720756731285</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.834592400557218</v>
@@ -15440,7 +15392,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.522929874354825</v>
+        <v>1.472782129791696</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.845647943343335</v>
@@ -15529,7 +15481,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.540696766430669</v>
+        <v>1.485882808091894</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.394269885697847</v>
@@ -15618,7 +15570,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.563120040807669</v>
+        <v>1.506480783130089</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.753753053091599</v>
@@ -15707,7 +15659,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.5673257320196</v>
+        <v>1.506629107842102</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.117373857477069</v>
@@ -15796,7 +15748,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.576163411968511</v>
+        <v>1.508136609368094</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.986919758697443</v>
@@ -15885,7 +15837,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.573871803760747</v>
+        <v>1.507058921434254</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.909732557683457</v>
@@ -15974,7 +15926,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.58370657279951</v>
+        <v>1.513987712797131</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.11675520196236</v>
@@ -16063,7 +16015,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.595778311368419</v>
+        <v>1.519704734320193</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.329758725690251</v>
@@ -16152,7 +16104,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.594043397650965</v>
+        <v>1.519644067098571</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.997977772651302</v>
@@ -16241,7 +16193,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.579378239764779</v>
+        <v>1.508896087503223</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.139643198783471</v>
@@ -16330,7 +16282,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.560198334236011</v>
+        <v>1.494189595562063</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.148566583700438</v>
@@ -16419,7 +16371,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.556692956082793</v>
+        <v>1.497517966546116</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.129852587490267</v>
@@ -16508,7 +16460,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571038017367258</v>
+        <v>1.518503154843392</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.629697432613145</v>
@@ -16597,7 +16549,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.573834632349431</v>
+        <v>1.521475433599159</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.928036231863145</v>
@@ -16686,7 +16638,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.566437960390701</v>
+        <v>1.519320894604517</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.636649202792209</v>
@@ -16775,7 +16727,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.571207016646532</v>
+        <v>1.525914719846484</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.857100498600289</v>
@@ -16864,7 +16816,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.554835991061129</v>
+        <v>1.515888619886055</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.729516307587514</v>
@@ -16953,7 +16905,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.555837005961287</v>
+        <v>1.51061170206561</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.71065962098708</v>
@@ -17042,7 +16994,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554024782656522</v>
+        <v>1.510839930450632</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.882464729251814</v>
@@ -17131,7 +17083,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.547998207606773</v>
+        <v>1.504692825225254</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.946213669864606</v>
@@ -17220,7 +17172,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.539785420771999</v>
+        <v>1.496856551126519</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.83562001907788</v>
@@ -17309,7 +17261,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.537889128665393</v>
+        <v>1.497335075694261</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.972980140901286</v>
@@ -17398,7 +17350,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.545751619959123</v>
+        <v>1.50273964323706</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.818087262900304</v>
@@ -17487,7 +17439,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.538233868371447</v>
+        <v>1.494337420084024</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.801086754644512</v>
@@ -17576,7 +17528,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.546284855895791</v>
+        <v>1.501036154053974</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.038989365174723</v>
@@ -17665,7 +17617,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.561619009974756</v>
+        <v>1.511602581575027</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.068554995124078</v>
@@ -17754,7 +17706,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.563994422548136</v>
+        <v>1.510371504156367</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.817667617804273</v>
@@ -17843,7 +17795,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.551730175636583</v>
+        <v>1.499539464507423</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.094041012190264</v>
@@ -17932,7 +17884,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.550148778871594</v>
+        <v>1.498257104862399</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.947841853254426</v>
@@ -18021,7 +17973,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.543534218045827</v>
+        <v>1.492032351846555</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.202251247146735</v>
@@ -18110,7 +18062,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.54397558330168</v>
+        <v>1.501263284225726</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.240541459079849</v>
@@ -18199,7 +18151,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.565689452917644</v>
+        <v>1.51701137386656</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.198986815134936</v>
@@ -18288,7 +18240,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.565883378354773</v>
+        <v>1.525097308108622</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.725735914907514</v>
@@ -18377,7 +18329,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.572089708882837</v>
+        <v>1.531590584651404</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.803632152341174</v>
@@ -18466,7 +18418,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.579322585724815</v>
+        <v>1.542501689491286</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.18040597337795</v>
@@ -18555,7 +18507,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.577063732442072</v>
+        <v>1.541958099392058</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.841085484111696</v>
@@ -18644,7 +18596,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.577171377527237</v>
+        <v>1.543304243291286</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.911205466680213</v>
@@ -18733,7 +18685,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.554301600751201</v>
+        <v>1.531903520244025</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.821745836560537</v>
@@ -18822,7 +18774,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.574270678912479</v>
+        <v>1.552730169621173</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.787933628750785</v>
@@ -18911,7 +18863,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.55977517509761</v>
+        <v>1.53407974616903</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.921879000318949</v>
@@ -19000,7 +18952,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.553653177658906</v>
+        <v>1.535795338842497</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.758993642667281</v>
@@ -19089,7 +19041,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.560718084474547</v>
+        <v>1.544579391391295</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.608595310925078</v>
@@ -19178,7 +19130,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.56214627069523</v>
+        <v>1.549306250121687</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.886242576747826</v>
@@ -19267,7 +19219,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.566181796791191</v>
+        <v>1.553639108906473</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.906975709221333</v>
@@ -19356,7 +19308,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.561623045553105</v>
+        <v>1.552239133485213</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.727875853469672</v>
@@ -19445,7 +19397,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.556673103312724</v>
+        <v>1.546026577630875</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.928437362569036</v>
@@ -19534,7 +19486,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.556817416208533</v>
+        <v>1.544352379438141</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.029805116274062</v>
@@ -19623,7 +19575,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.550557103785974</v>
+        <v>1.534930814143562</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.77603696290852</v>
@@ -19712,7 +19664,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.55665023399565</v>
+        <v>1.540094251094216</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.6991457619864</v>
@@ -19801,7 +19753,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.569615372936956</v>
+        <v>1.549494703056867</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.579626155635313</v>
@@ -20087,7 +20039,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.597598497417493</v>
+        <v>1.52448015410094</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.253346895590179</v>
@@ -20176,7 +20128,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.606524717973115</v>
+        <v>1.520473004820319</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.001117257841057</v>
@@ -20265,7 +20217,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.596887312617737</v>
+        <v>1.512879187450384</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.369716038274351</v>
@@ -20354,7 +20306,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.600770432095274</v>
+        <v>1.510633404225135</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.067005921767298</v>
@@ -20443,7 +20395,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.605861951437548</v>
+        <v>1.510987362951266</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.302925758272615</v>
@@ -20532,7 +20484,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.611176752280237</v>
+        <v>1.508594401148128</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.816647825279788</v>
@@ -20621,7 +20573,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.61310526448737</v>
+        <v>1.498437243469635</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.102792025146124</v>
@@ -20710,7 +20662,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.610763214818718</v>
+        <v>1.494396629207667</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.005073337716595</v>
@@ -20799,7 +20751,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.609897179172697</v>
+        <v>1.49049693017183</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.179215006695979</v>
@@ -20888,7 +20840,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610857431901156</v>
+        <v>1.490553347407039</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.257255976969216</v>
@@ -20977,7 +20929,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.601398764745966</v>
+        <v>1.479184721201352</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.329331837030705</v>
@@ -21066,7 +21018,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.589742880249704</v>
+        <v>1.466097141993096</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.240736056821093</v>
@@ -21155,7 +21107,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591020105858739</v>
+        <v>1.471846974826444</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.869640439044345</v>
@@ -21244,7 +21196,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.598349550861391</v>
+        <v>1.487060832927711</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.196070844471045</v>
@@ -21333,7 +21285,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.588632491581097</v>
+        <v>1.482751164129099</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.334054175833686</v>
@@ -21422,7 +21374,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.57992928706821</v>
+        <v>1.478411068382176</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.294549908234375</v>
@@ -21511,7 +21463,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574219701180284</v>
+        <v>1.475567496736413</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.135699985054266</v>
@@ -21600,7 +21552,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.578509736819849</v>
+        <v>1.47903448560475</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.151508583104579</v>
@@ -21689,7 +21641,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.577709879689369</v>
+        <v>1.479520300616927</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.141893285654584</v>
@@ -21778,7 +21730,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.58411259708272</v>
+        <v>1.484112681292983</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.049676872363439</v>
@@ -21867,7 +21819,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.570781621908536</v>
+        <v>1.476177710804925</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.218141821308182</v>
@@ -21956,7 +21908,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.565864502634597</v>
+        <v>1.476243774944901</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.359960124617348</v>
@@ -22045,7 +21997,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.573358756844548</v>
+        <v>1.486662099491816</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.111935132364447</v>
@@ -22134,7 +22086,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.57513319910989</v>
+        <v>1.494126392529227</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.267451889086387</v>
@@ -22223,7 +22175,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.583702432971129</v>
+        <v>1.492745593990818</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.105728842941866</v>
@@ -22312,7 +22264,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.58333336283151</v>
+        <v>1.49591301565587</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.12370368418953</v>
@@ -22401,7 +22353,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.599617207186906</v>
+        <v>1.510832081606191</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.343655601189451</v>
@@ -22490,7 +22442,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.609692258008747</v>
+        <v>1.520530477641097</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.893720406881233</v>
@@ -22579,7 +22531,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.614219374984487</v>
+        <v>1.519938468094256</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.458990378624699</v>
@@ -22668,7 +22620,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.627759468744559</v>
+        <v>1.532924940478694</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.31905108306045</v>
@@ -22757,7 +22709,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.631768108125225</v>
+        <v>1.534794548415317</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.524546619725627</v>
@@ -22846,7 +22798,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.640178182978985</v>
+        <v>1.547779603017547</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.480503795151107</v>
@@ -22935,7 +22887,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.635771167836285</v>
+        <v>1.54800109755625</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.199688660433905</v>
@@ -23024,7 +22976,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.636350306654055</v>
+        <v>1.546582542039786</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.467395652366823</v>
@@ -23113,7 +23065,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.645749668774733</v>
+        <v>1.556148589054714</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.095311270584455</v>
@@ -23202,7 +23154,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.664825617920711</v>
+        <v>1.574369884899085</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.554197885700766</v>
@@ -23291,7 +23243,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.661067493029701</v>
+        <v>1.578018501145399</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.227206664512201</v>
@@ -23380,7 +23332,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.660359938338742</v>
+        <v>1.572071799956026</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.387551885112201</v>
@@ -23469,7 +23421,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.658088483702365</v>
+        <v>1.564430645640284</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.212046159146378</v>
@@ -23558,7 +23510,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.649346241445154</v>
+        <v>1.563720972070587</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.212867320050874</v>
@@ -23647,7 +23599,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.643282494375628</v>
+        <v>1.555622508206235</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.324425676727969</v>
@@ -23736,7 +23688,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647385067305612</v>
+        <v>1.554846323868663</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.42177776959597</v>
@@ -23825,7 +23777,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.654500104921505</v>
+        <v>1.56120268909071</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.293375930535503</v>
@@ -23914,7 +23866,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.65722224256616</v>
+        <v>1.56376616707827</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.200985860338836</v>
@@ -24003,7 +23955,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.648579997409043</v>
+        <v>1.556594206642489</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.23265920649558</v>
@@ -24092,7 +24044,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639549510165951</v>
+        <v>1.550455949078608</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.323265521285584</v>
@@ -24181,7 +24133,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.642067828558698</v>
+        <v>1.547690303064</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.945752327469983</v>
@@ -24270,7 +24222,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.637848319487753</v>
+        <v>1.545679666530678</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.388113943744903</v>
@@ -24359,7 +24311,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.637942532677704</v>
+        <v>1.553763967428896</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.451681320095176</v>
@@ -24448,7 +24400,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638888295815819</v>
+        <v>1.554933657665253</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.778330427922236</v>
@@ -24537,7 +24489,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.651569920667746</v>
+        <v>1.555780314138351</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.268163530269516</v>
@@ -24823,7 +24775,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.468153251949295</v>
+        <v>1.422193916873838</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.485891805282858</v>
@@ -24912,7 +24864,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456613950795606</v>
+        <v>1.400058983307912</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.504352403054615</v>
@@ -25001,7 +24953,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.450766374165602</v>
+        <v>1.391712968193299</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.510175483018338</v>
@@ -25090,7 +25042,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.466134212671718</v>
+        <v>1.404116895250314</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.458166411241878</v>
@@ -25179,7 +25131,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.481669768694533</v>
+        <v>1.417374180967724</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.568469368376104</v>
@@ -25268,7 +25220,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.507870527020126</v>
+        <v>1.434170977440109</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.302326256960903</v>
@@ -25357,7 +25309,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.517155585227238</v>
+        <v>1.440121210872893</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.564537010840679</v>
@@ -25446,7 +25398,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.540572260888039</v>
+        <v>1.454067522831832</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.620363081168231</v>
@@ -25535,7 +25487,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.547065019736815</v>
+        <v>1.460432941520306</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.784946033114068</v>
@@ -25624,7 +25576,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.540641171145125</v>
+        <v>1.452666815700944</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.967860065527254</v>
@@ -25713,7 +25665,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.535614500753327</v>
+        <v>1.454995064925678</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.873275339534547</v>
@@ -25802,7 +25754,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.518875212913505</v>
+        <v>1.440071339338067</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.047692295993936</v>
@@ -25891,7 +25843,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.521786331560503</v>
+        <v>1.44622302358719</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.841867010706931</v>
@@ -25980,7 +25932,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.528540021698062</v>
+        <v>1.467381999210455</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.890994005207684</v>
@@ -26069,7 +26021,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.531111815474633</v>
+        <v>1.461853057938832</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.941385503328946</v>
@@ -26158,7 +26110,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.508501392323392</v>
+        <v>1.448844482032017</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.792575187338103</v>
@@ -26247,7 +26199,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.526186217948934</v>
+        <v>1.477523441350644</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.653771792618539</v>
@@ -26336,7 +26288,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.530923898576166</v>
+        <v>1.484279525704252</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.732054912584978</v>
@@ -26425,7 +26377,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.516782820440774</v>
+        <v>1.462249409321304</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.762441164119019</v>
@@ -26514,7 +26466,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.511446556493529</v>
+        <v>1.460093160558583</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.727183473716313</v>
@@ -26603,7 +26555,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.501356564594791</v>
+        <v>1.451174317727807</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.864598634594276</v>
@@ -26692,7 +26644,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.497206902913378</v>
+        <v>1.445545114835345</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.819409000568415</v>
@@ -26781,7 +26733,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.511016781587004</v>
+        <v>1.456352084448862</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.65879193966868</v>
@@ -26870,7 +26822,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.519700225882107</v>
+        <v>1.467031768902734</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.767585800141396</v>
@@ -26959,7 +26911,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.52556492306872</v>
+        <v>1.47408906818138</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.686069479774793</v>
@@ -27048,7 +27000,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.519441767660598</v>
+        <v>1.469225073715984</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.437544104393588</v>
@@ -27137,7 +27089,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.532938026172676</v>
+        <v>1.482671966680049</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.766317146502645</v>
@@ -27226,7 +27178,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.539724754397151</v>
+        <v>1.486028155609321</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.498803517122123</v>
@@ -27315,7 +27267,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.543523389908809</v>
+        <v>1.487411612039908</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.77615443816429</v>
@@ -27404,7 +27356,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.53114746721318</v>
+        <v>1.480061574568565</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.764064963565481</v>
@@ -27493,7 +27445,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.538270816121929</v>
+        <v>1.484136001221678</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.814580672763989</v>
@@ -27582,7 +27534,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.534279275392674</v>
+        <v>1.479987724072881</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.849237096754152</v>
@@ -27671,7 +27623,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.535136448418049</v>
+        <v>1.486168649764447</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.677515957592148</v>
@@ -27760,7 +27712,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534582516148718</v>
+        <v>1.492888909833044</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.769208239151201</v>
@@ -27849,7 +27801,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.547086633912427</v>
+        <v>1.506597095473305</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.830040282708672</v>
@@ -27938,7 +27890,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.562560804976475</v>
+        <v>1.529978649628377</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.643310772779762</v>
@@ -28027,7 +27979,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.561947566388779</v>
+        <v>1.53352477266178</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.788549129187201</v>
@@ -28116,7 +28068,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.562853219630882</v>
+        <v>1.538833826113761</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.849772525527341</v>
@@ -28205,7 +28157,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.563090901271373</v>
+        <v>1.538405427511849</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.7291865437291</v>
@@ -28294,7 +28246,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.560869112258763</v>
+        <v>1.539419324399001</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.657776510050125</v>
@@ -28383,7 +28335,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.561985341044813</v>
+        <v>1.537370594042209</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.825592042080908</v>
@@ -28472,7 +28424,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.546803727445016</v>
+        <v>1.516805998558624</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.617052966323402</v>
@@ -28561,7 +28513,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.543629738865427</v>
+        <v>1.516469211217514</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.797443872802676</v>
@@ -28650,7 +28602,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.537207179207394</v>
+        <v>1.512242347055124</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.806022568710221</v>
@@ -28739,7 +28691,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.55726168054088</v>
+        <v>1.530385870360745</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.685718857166483</v>
@@ -28828,7 +28780,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.556403327308879</v>
+        <v>1.529304715865887</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.682892283952909</v>
@@ -28917,7 +28869,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.545537444755692</v>
+        <v>1.51438312532776</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.34473513080164</v>
@@ -29006,7 +28958,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.53297059388418</v>
+        <v>1.507002792259536</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.413280157932075</v>
@@ -29095,7 +29047,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.532057933689762</v>
+        <v>1.505198694218328</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.704780889550517</v>
@@ -29184,7 +29136,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.531464373880407</v>
+        <v>1.498635872280139</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.445806126881292</v>
@@ -29273,7 +29225,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.533062157827942</v>
+        <v>1.498614592316035</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.619606253730235</v>
@@ -29559,7 +29511,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.352993821987126</v>
+        <v>1.351427746055026</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.2636736847753</v>
@@ -29648,7 +29600,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.352589872177615</v>
+        <v>1.342059962155447</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.109283189342589</v>
@@ -29737,7 +29689,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.341563369463293</v>
+        <v>1.330949554366336</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.309688857880355</v>
@@ -29826,7 +29778,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.347413505604354</v>
+        <v>1.335016659878449</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.242190289687865</v>
@@ -29915,7 +29867,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.340516753303701</v>
+        <v>1.328913724654446</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.274059315384127</v>
@@ -30004,7 +29956,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.389875187311427</v>
+        <v>1.371999584234904</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.201826727241618</v>
@@ -30093,7 +30045,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.392933778457516</v>
+        <v>1.370010212930655</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.197303424802087</v>
@@ -30182,7 +30134,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.400506026912226</v>
+        <v>1.376789767440546</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.296206024608587</v>
@@ -30271,7 +30223,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.420858480605114</v>
+        <v>1.391899306364822</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.138103433940167</v>
@@ -30360,7 +30312,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.428308927665888</v>
+        <v>1.396124311309904</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.202693250214792</v>
@@ -30449,7 +30401,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.428818413818409</v>
+        <v>1.395247493429343</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.232108910922888</v>
@@ -30538,7 +30490,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.416439060339823</v>
+        <v>1.376161018918604</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.220768934872638</v>
@@ -30627,7 +30579,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.421878592381349</v>
+        <v>1.377355741727093</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.280938843168518</v>
@@ -30716,7 +30668,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.42435664051346</v>
+        <v>1.389419911318896</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.990486015251221</v>
@@ -30805,7 +30757,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.438879780971398</v>
+        <v>1.40039120254705</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.355760105507956</v>
@@ -30894,7 +30846,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.442046747798442</v>
+        <v>1.405577112988972</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.330388826431321</v>
@@ -30983,7 +30935,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.452899889862816</v>
+        <v>1.424573180294286</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.39945255448932</v>
@@ -31072,7 +31024,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.47414026533708</v>
+        <v>1.441436973757299</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.406642175217837</v>
@@ -31161,7 +31113,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.454232057471695</v>
+        <v>1.425728106376475</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.300016943695129</v>
@@ -31250,7 +31202,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.479655952952966</v>
+        <v>1.444515117847977</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.190993868887895</v>
@@ -31339,7 +31291,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.440351899485637</v>
+        <v>1.408631234000683</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.238150419241795</v>
@@ -31428,7 +31380,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.438790176278428</v>
+        <v>1.408055323984188</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.188727220662634</v>
@@ -31517,7 +31469,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.439403973198165</v>
+        <v>1.408777574093407</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.31342167452381</v>
@@ -31606,7 +31558,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.452346048350467</v>
+        <v>1.424641193589275</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.195331388139038</v>
@@ -31695,7 +31647,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.451713312599414</v>
+        <v>1.423624447613558</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.230242227667683</v>
@@ -31784,7 +31736,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.424619569158101</v>
+        <v>1.399283250857463</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.109852181456833</v>
@@ -31873,7 +31825,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.453240968308468</v>
+        <v>1.427931768081538</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.367106071611909</v>
@@ -31962,7 +31914,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.483002540009844</v>
+        <v>1.452179545700834</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.093290514036955</v>
@@ -32051,7 +32003,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.483508683246776</v>
+        <v>1.450889842609663</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.171928488066352</v>
@@ -32140,7 +32092,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.44915242122464</v>
+        <v>1.42273524495873</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.173476813450974</v>
@@ -32229,7 +32181,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.442865077005035</v>
+        <v>1.416323445868783</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.248303116650362</v>
@@ -32318,7 +32270,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.428436702314121</v>
+        <v>1.398600247362801</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.216230929706129</v>
@@ -32407,7 +32359,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.423574648274406</v>
+        <v>1.393476227558853</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.443830443690926</v>
@@ -32496,7 +32448,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.415294253991017</v>
+        <v>1.392272079197689</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.280184171767139</v>
@@ -32585,7 +32537,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.425970517521103</v>
+        <v>1.401327362001432</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.045193030109755</v>
@@ -32674,7 +32626,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.453910330601987</v>
+        <v>1.435554983015019</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.263223499949792</v>
@@ -32763,7 +32715,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.453461819522103</v>
+        <v>1.436555920840302</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.314631565834947</v>
@@ -32852,7 +32804,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.456054743320008</v>
+        <v>1.441772576658133</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.333434013882611</v>
@@ -32941,7 +32893,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.454319320478179</v>
+        <v>1.439645375556815</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.391097359862072</v>
@@ -33030,7 +32982,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.439444164730285</v>
+        <v>1.426362541156045</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.206308142130404</v>
@@ -33119,7 +33071,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.440136491281469</v>
+        <v>1.428012702633418</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.226722973139507</v>
@@ -33208,7 +33160,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.439447780984122</v>
+        <v>1.425795946554207</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.208023579573104</v>
@@ -33297,7 +33249,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.437475290534112</v>
+        <v>1.421366071592862</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.238307850700677</v>
@@ -33386,7 +33338,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.441362986934236</v>
+        <v>1.429429932445124</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.147394060038569</v>
@@ -33475,7 +33427,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.475202688458337</v>
+        <v>1.45484001800396</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.143506297730932</v>
@@ -33564,7 +33516,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.436889939181685</v>
+        <v>1.426157579961246</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.243419655906831</v>
@@ -33653,7 +33605,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.424451366608616</v>
+        <v>1.415976200233045</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.080074606663105</v>
@@ -33742,7 +33694,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.40430070373663</v>
+        <v>1.395591859620502</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.297562012444498</v>
@@ -33831,7 +33783,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.38308507579705</v>
+        <v>1.38028463489396</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.262397827356523</v>
@@ -33920,7 +33872,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.383310403895395</v>
+        <v>1.380521614618698</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.190040511340927</v>
@@ -34009,7 +33961,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.390868650428495</v>
+        <v>1.387189453144395</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.285926992083267</v>
